--- a/data/trans_bre/KIDM_A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_A_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 11,92</t>
+          <t>1,43; 13,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,99</t>
+          <t>-2,67; 6,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 13,55</t>
+          <t>-2,99; 13,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 0,0</t>
+          <t>-31,78; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,17</t>
+          <t>-2,47; 1,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 1,31</t>
+          <t>-5,0; 1,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 1,88</t>
+          <t>-1,61; 2,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,65</t>
+          <t>-1,33; 2,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-78,3; 344,29</t>
+          <t>-80,08; 232,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,24; 46,66</t>
+          <t>-76,57; 47,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-89,43; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 3127,54</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 2,67</t>
+          <t>-7,79; 2,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,44</t>
+          <t>1,31; 10,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 0,12</t>
+          <t>-8,69; 0,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,66</t>
+          <t>0,0; 8,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 2,19</t>
+          <t>-1,38; 2,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,09</t>
+          <t>-2,87; 2,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 1,39</t>
+          <t>-1,8; 1,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 1,92</t>
+          <t>-2,01; 1,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,88; 237,61</t>
+          <t>-56,04; 249,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,77; 80,56</t>
+          <t>-59,99; 86,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-72,35; 181,19</t>
+          <t>-70,71; 205,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-87,53; 454,47</t>
+          <t>-89,78; 448,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/KIDM_A_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/KIDM_A_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,58</t>
+          <t>-10,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,43; 13,1</t>
+          <t>1,43; 12,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 6,92</t>
+          <t>-2,77; 6,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 13,79</t>
+          <t>-3,13; 15,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,78; 0,0</t>
+          <t>-30,44; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,37%</t>
+          <t>43,51%</t>
         </is>
       </c>
     </row>
@@ -768,32 +768,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 1,9</t>
+          <t>-2,27; 2,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 1,11</t>
+          <t>-5,07; 1,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,0</t>
+          <t>-1,51; 1,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,75</t>
+          <t>-1,26; 2,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-80,08; 232,46</t>
+          <t>-78,89; 304,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,57; 47,77</t>
+          <t>-76,81; 43,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 3127,54</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 2,61</t>
+          <t>-8,08; 2,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 10,81</t>
+          <t>1,3; 10,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 0,9</t>
+          <t>-8,74; 0,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,6</t>
+          <t>0,0; 6,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>-4,03%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 2,22</t>
+          <t>-1,57; 2,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,02</t>
+          <t>-2,83; 1,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,39</t>
+          <t>-1,87; 1,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 1,75</t>
+          <t>-2,09; 1,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 249,74</t>
+          <t>-62,28; 238,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,99; 86,77</t>
+          <t>-58,81; 83,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-70,71; 205,76</t>
+          <t>-71,16; 184,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,78; 448,94</t>
+          <t>-100,0; 318,49</t>
         </is>
       </c>
     </row>
